--- a/raster_temp.xlsx
+++ b/raster_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17033\Desktop\covid_wastewater\tester_site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5229FA-CC06-47B9-9DC5-FE0451FED185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E47C02-BE17-4289-B0E5-A4A9041223B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="45" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>October</t>
   </si>
@@ -123,13 +123,22 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Week</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Score</t>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
   </si>
 </sst>
 </file>
@@ -172,7 +181,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -465,7 +476,7 @@
     <col min="4" max="4" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -473,16 +484,13 @@
         <v>31</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -495,11 +503,8 @@
       <c r="D2" s="3">
         <v>11.072469999999999</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -512,11 +517,8 @@
       <c r="D3" s="3">
         <v>14.21996</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -529,11 +531,8 @@
       <c r="D4" s="3">
         <v>13.55589</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -546,11 +545,8 @@
       <c r="D5" s="3">
         <v>13.58642</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -563,11 +559,8 @@
       <c r="D6" s="3">
         <v>14.16896</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -580,11 +573,8 @@
       <c r="D7" s="3">
         <v>13.336040000000001</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -597,11 +587,8 @@
       <c r="D8" s="3">
         <v>11.75691</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -614,11 +601,8 @@
       <c r="D9" s="3">
         <v>12.882099999999999</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -631,11 +615,8 @@
       <c r="D10" s="3">
         <v>13.524559999999999</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -648,11 +629,8 @@
       <c r="D11" s="3">
         <v>13.32855</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -665,11 +643,8 @@
       <c r="D12" s="3">
         <v>14.47885</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -682,11 +657,8 @@
       <c r="D13" s="3">
         <v>14.13364</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -699,11 +671,8 @@
       <c r="D14" s="3">
         <v>14.375450000000001</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -716,11 +685,8 @@
       <c r="D15" s="3">
         <v>13.191380000000001</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -733,11 +699,8 @@
       <c r="D16" s="3">
         <v>13.80336</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -750,11 +713,8 @@
       <c r="D17" s="3">
         <v>12.446210000000001</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -767,11 +727,8 @@
       <c r="D18" s="3">
         <v>13.05443</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,11 +741,8 @@
       <c r="D19" s="3">
         <v>13.4674</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,11 +755,8 @@
       <c r="D20" s="3">
         <v>13.204689999999999</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -816,15 +767,12 @@
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>12.683870000000001</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -833,15 +781,12 @@
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>13.11628</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -850,15 +795,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>12.791639999999999</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -867,10 +809,63 @@
         <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>13.691240000000001</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>13.315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4">
+        <v>13.69</v>
       </c>
     </row>
   </sheetData>
